--- a/tests/demo-xfem.xlsx
+++ b/tests/demo-xfem.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paulocachim/MyFiles/github/ofem/tests/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paulocachim/MyFiles/github/ofempy/tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CC5A875-C179-274B-9413-02CE8BCB46C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0842B8D7-BF87-7A40-AE0A-20616B8CCE2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4340" yWindow="500" windowWidth="24460" windowHeight="16400" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4340" yWindow="500" windowWidth="24460" windowHeight="16400" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="points" sheetId="1" r:id="rId1"/>
@@ -43,10 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="83">
-  <si>
-    <t>tag</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="82">
   <si>
     <t>x</t>
   </si>
@@ -692,23 +689,23 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -812,19 +809,19 @@
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C1" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
@@ -832,10 +829,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C2">
         <v>-10</v>
@@ -864,32 +861,32 @@
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D1" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="G1" s="7"/>
       <c r="H1" s="7"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -913,38 +910,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83B0B10C-9196-0348-9FD9-238E5F077455}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -958,10 +955,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -975,10 +972,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -992,10 +989,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
         <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -1012,10 +1009,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
         <v>15</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -1041,48 +1038,48 @@
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
         <v>21</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>24</v>
       </c>
       <c r="E2">
         <f>0.2*0.3</f>
@@ -1106,16 +1103,16 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
         <v>25</v>
       </c>
-      <c r="B3" t="s">
-        <v>26</v>
-      </c>
       <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
         <v>23</v>
-      </c>
-      <c r="D3" t="s">
-        <v>24</v>
       </c>
       <c r="I3">
         <v>0.2</v>
@@ -1141,50 +1138,50 @@
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1205,33 +1202,33 @@
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2">
         <v>30000000</v>
@@ -1258,7 +1255,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B3">
         <v>200000000</v>
@@ -1316,7 +1313,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8B2D24D-CB20-334B-B235-342FCD6D478C}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
@@ -1324,25 +1321,25 @@
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -1408,64 +1405,64 @@
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
         <v>58</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1485,27 +1482,27 @@
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" t="s">
         <v>70</v>
       </c>
-      <c r="B2" t="s">
-        <v>71</v>
-      </c>
       <c r="C2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -1513,10 +1510,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -1524,13 +1521,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D4">
         <v>1.35</v>
@@ -1538,13 +1535,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D5">
         <v>1.5</v>
@@ -1552,10 +1549,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D6">
         <v>0.9</v>
@@ -1563,13 +1560,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" t="s">
         <v>74</v>
       </c>
-      <c r="B7" t="s">
-        <v>75</v>
-      </c>
       <c r="C7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -1577,10 +1574,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -1603,28 +1600,28 @@
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -1632,7 +1629,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C2">
         <v>0</v>

--- a/tests/demo-xfem.xlsx
+++ b/tests/demo-xfem.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paulocachim/MyFiles/github/ofempy/tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0842B8D7-BF87-7A40-AE0A-20616B8CCE2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9865B213-6028-C44E-90AD-2AC5EB00F105}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4340" yWindow="500" windowWidth="24460" windowHeight="16400" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4340" yWindow="500" windowWidth="24460" windowHeight="16400" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="points" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="91">
   <si>
     <t>x</t>
   </si>
@@ -289,6 +289,33 @@
   </si>
   <si>
     <t>p1</t>
+  </si>
+  <si>
+    <t>stiff-x</t>
+  </si>
+  <si>
+    <t>stiff-y</t>
+  </si>
+  <si>
+    <t>stiff-z</t>
+  </si>
+  <si>
+    <t>mola</t>
+  </si>
+  <si>
+    <t>spring</t>
+  </si>
+  <si>
+    <t>isotropic</t>
+  </si>
+  <si>
+    <t>idotropic</t>
+  </si>
+  <si>
+    <t>solid</t>
+  </si>
+  <si>
+    <t>volume</t>
   </si>
 </sst>
 </file>
@@ -910,7 +937,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83B0B10C-9196-0348-9FD9-238E5F077455}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1028,10 +1055,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B13419A3-A0E6-EB4F-A91C-78AB64D9517C}">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1119,6 +1146,17 @@
       </c>
       <c r="J3">
         <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1192,117 +1230,152 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2ED8E61-5FB5-6B48-B988-BB3DF4DF01BD}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>22</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2">
         <v>30000000</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>0.2</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>25</v>
       </c>
-      <c r="E2" s="5">
+      <c r="F2" s="5">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="F2" s="6">
-        <f>B2/2/1.2</f>
+      <c r="G2" s="6">
+        <f>C2/2/1.2</f>
         <v>12500000</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>2500</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>0.05</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>33</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3">
         <v>200000000</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>0.3</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>77</v>
       </c>
-      <c r="E3" s="5">
+      <c r="F3" s="5">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="F3" s="6">
+      <c r="G3" s="6">
         <f>80000000</f>
         <v>80000000</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>7850</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>0.02</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="E10" s="4"/>
-    </row>
-    <row r="11" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="E11" s="4"/>
-    </row>
-    <row r="12" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="E12" s="4"/>
-    </row>
-    <row r="13" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="E14" s="4"/>
-    </row>
-    <row r="15" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="E15" s="4"/>
-    </row>
-    <row r="16" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="E16" s="4"/>
-    </row>
-    <row r="17" spans="5:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="E17" s="4"/>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" t="s">
+        <v>86</v>
+      </c>
+      <c r="J4">
+        <v>1000</v>
+      </c>
+      <c r="K4">
+        <v>1000</v>
+      </c>
+      <c r="L4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="6:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="F17" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tests/demo-xfem.xlsx
+++ b/tests/demo-xfem.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paulocachim/MyFiles/github/ofempy/tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9865B213-6028-C44E-90AD-2AC5EB00F105}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66917A18-159A-6A40-8850-019106D2D892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4340" yWindow="500" windowWidth="24460" windowHeight="16400" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4340" yWindow="500" windowWidth="24460" windowHeight="16400" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="points" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="89">
   <si>
     <t>x</t>
   </si>
@@ -270,27 +270,6 @@
     <t>envelope</t>
   </si>
   <si>
-    <t>n</t>
-  </si>
-  <si>
-    <t>tx</t>
-  </si>
-  <si>
-    <t>ty</t>
-  </si>
-  <si>
-    <t>p2</t>
-  </si>
-  <si>
-    <t>p3</t>
-  </si>
-  <si>
-    <t>t1</t>
-  </si>
-  <si>
-    <t>p1</t>
-  </si>
-  <si>
     <t>stiff-x</t>
   </si>
   <si>
@@ -316,6 +295,21 @@
   </si>
   <si>
     <t>volume</t>
+  </si>
+  <si>
+    <t>px</t>
+  </si>
+  <si>
+    <t>py</t>
+  </si>
+  <si>
+    <t>pz</t>
+  </si>
+  <si>
+    <t>direction</t>
+  </si>
+  <si>
+    <t>global</t>
   </si>
 </sst>
 </file>
@@ -829,7 +823,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -841,16 +835,18 @@
       <c r="B1" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>75</v>
+      <c r="C1" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="F1" s="7"/>
+        <v>85</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>86</v>
+      </c>
       <c r="G1" s="7"/>
       <c r="H1" s="7"/>
     </row>
@@ -861,13 +857,16 @@
       <c r="B2" t="s">
         <v>67</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2">
         <v>-10</v>
       </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
       <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
         <v>0</v>
       </c>
     </row>
@@ -880,8 +879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E2C7B94-D9DC-CB4D-B01A-097177E5A699}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -894,16 +893,16 @@
         <v>46</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="G1" s="7"/>
       <c r="H1" s="7"/>
@@ -1057,7 +1056,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B13419A3-A0E6-EB4F-A91C-78AB64D9517C}">
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -1150,10 +1149,10 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B4" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C4" t="s">
         <v>22</v>
@@ -1267,13 +1266,13 @@
         <v>32</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -1281,7 +1280,7 @@
         <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C2">
         <v>30000000</v>
@@ -1311,7 +1310,7 @@
         <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C3">
         <v>200000000</v>
@@ -1338,10 +1337,10 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B4" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="J4">
         <v>1000</v>
@@ -1666,7 +1665,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/tests/demo-xfem.xlsx
+++ b/tests/demo-xfem.xlsx
@@ -1,29 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10303"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paulocachim/MyFiles/github/ofempy/tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66917A18-159A-6A40-8850-019106D2D892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{917266AB-A211-7746-A4A0-E3483A2FB5D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4340" yWindow="500" windowWidth="24460" windowHeight="16400" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4340" yWindow="500" windowWidth="24460" windowHeight="16400" firstSheet="2" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="points" sheetId="1" r:id="rId1"/>
     <sheet name="elements" sheetId="2" r:id="rId2"/>
     <sheet name="sections" sheetId="3" r:id="rId3"/>
-    <sheet name="elementsections" sheetId="4" r:id="rId4"/>
-    <sheet name="materials" sheetId="7" r:id="rId5"/>
-    <sheet name="supports" sheetId="8" r:id="rId6"/>
-    <sheet name="loadcases" sheetId="10" r:id="rId7"/>
-    <sheet name="loadcombinations" sheetId="11" r:id="rId8"/>
-    <sheet name="pointloads" sheetId="12" r:id="rId9"/>
-    <sheet name="arealoads" sheetId="13" r:id="rId10"/>
-    <sheet name="lineloads" sheetId="14" r:id="rId11"/>
+    <sheet name="Sheet1" sheetId="15" r:id="rId4"/>
+    <sheet name="elementsections" sheetId="4" r:id="rId5"/>
+    <sheet name="materials" sheetId="7" r:id="rId6"/>
+    <sheet name="supports" sheetId="8" r:id="rId7"/>
+    <sheet name="loadcases" sheetId="10" r:id="rId8"/>
+    <sheet name="loadcombinations" sheetId="11" r:id="rId9"/>
+    <sheet name="pointloads" sheetId="12" r:id="rId10"/>
+    <sheet name="arealoads" sheetId="13" r:id="rId11"/>
+    <sheet name="lineloads" sheetId="14" r:id="rId12"/>
+    <sheet name="groups" sheetId="16" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="92">
   <si>
     <t>x</t>
   </si>
@@ -310,6 +312,15 @@
   </si>
   <si>
     <t>global</t>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>tag</t>
   </si>
 </sst>
 </file>
@@ -819,11 +830,78 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D465A2C8-1B43-D04C-9B00-3C079A34278B}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>-100</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A247B55C-2B13-8448-B40E-877D112D8BE5}">
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -875,11 +953,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E2C7B94-D9DC-CB4D-B01A-097177E5A699}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -925,6 +1003,48 @@
       </c>
       <c r="F2">
         <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE592848-D229-B74D-876B-C404010626D7}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1057,7 +1177,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1164,6 +1284,18 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C552CA9D-6E7D-4F42-B463-70B4FEAEAF8D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{036CF89C-6A08-954A-9006-22A45A5500E6}">
   <dimension ref="A1:B6"/>
   <sheetViews>
@@ -1227,12 +1359,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2ED8E61-5FB5-6B48-B988-BB3DF4DF01BD}">
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C1" sqref="C1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1378,15 +1510,16 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8B2D24D-CB20-334B-B235-342FCD6D478C}">
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1465,7 +1598,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0E3BD05-FFD4-4F46-8559-89E01E5615D9}">
   <dimension ref="A1:C7"/>
   <sheetViews>
@@ -1542,7 +1675,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16113565-253F-744D-B15D-98171538D17C}">
   <dimension ref="A1:D8"/>
   <sheetViews>
@@ -1658,71 +1791,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D465A2C8-1B43-D04C-9B00-3C079A34278B}">
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>-100</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/tests/demo-xfem.xlsx
+++ b/tests/demo-xfem.xlsx
@@ -8,24 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paulocachim/MyFiles/github/ofempy/tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{917266AB-A211-7746-A4A0-E3483A2FB5D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A938E4D0-13CA-AA49-809E-38D2B6B09FED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4340" yWindow="500" windowWidth="24460" windowHeight="16400" firstSheet="2" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4340" yWindow="500" windowWidth="24460" windowHeight="16400" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="points" sheetId="1" r:id="rId1"/>
     <sheet name="elements" sheetId="2" r:id="rId2"/>
     <sheet name="sections" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="15" r:id="rId4"/>
-    <sheet name="elementsections" sheetId="4" r:id="rId5"/>
-    <sheet name="materials" sheetId="7" r:id="rId6"/>
-    <sheet name="supports" sheetId="8" r:id="rId7"/>
-    <sheet name="loadcases" sheetId="10" r:id="rId8"/>
-    <sheet name="loadcombinations" sheetId="11" r:id="rId9"/>
-    <sheet name="pointloads" sheetId="12" r:id="rId10"/>
-    <sheet name="arealoads" sheetId="13" r:id="rId11"/>
-    <sheet name="lineloads" sheetId="14" r:id="rId12"/>
-    <sheet name="groups" sheetId="16" r:id="rId13"/>
+    <sheet name="elementsections" sheetId="4" r:id="rId4"/>
+    <sheet name="materials" sheetId="7" r:id="rId5"/>
+    <sheet name="supports" sheetId="8" r:id="rId6"/>
+    <sheet name="loadcases" sheetId="10" r:id="rId7"/>
+    <sheet name="loadcombinations" sheetId="11" r:id="rId8"/>
+    <sheet name="pointloads" sheetId="12" r:id="rId9"/>
+    <sheet name="arealoads" sheetId="13" r:id="rId10"/>
+    <sheet name="lineloads" sheetId="14" r:id="rId11"/>
+    <sheet name="groups" sheetId="16" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -830,73 +829,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D465A2C8-1B43-D04C-9B00-3C079A34278B}">
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>-100</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A247B55C-2B13-8448-B40E-877D112D8BE5}">
   <dimension ref="A1:H2"/>
   <sheetViews>
@@ -953,7 +885,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E2C7B94-D9DC-CB4D-B01A-097177E5A699}">
   <dimension ref="A1:H2"/>
   <sheetViews>
@@ -1010,11 +942,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE592848-D229-B74D-876B-C404010626D7}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -1284,18 +1216,6 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C552CA9D-6E7D-4F42-B463-70B4FEAEAF8D}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{036CF89C-6A08-954A-9006-22A45A5500E6}">
   <dimension ref="A1:B6"/>
   <sheetViews>
@@ -1359,12 +1279,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2ED8E61-5FB5-6B48-B988-BB3DF4DF01BD}">
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:L1"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1514,7 +1434,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8B2D24D-CB20-334B-B235-342FCD6D478C}">
   <dimension ref="A1:G3"/>
   <sheetViews>
@@ -1598,7 +1518,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0E3BD05-FFD4-4F46-8559-89E01E5615D9}">
   <dimension ref="A1:C7"/>
   <sheetViews>
@@ -1675,7 +1595,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16113565-253F-744D-B15D-98171538D17C}">
   <dimension ref="A1:D8"/>
   <sheetViews>
@@ -1791,4 +1711,71 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D465A2C8-1B43-D04C-9B00-3C079A34278B}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>-100</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>